--- a/medicine/Pharmacie/François_Descroizilles/François_Descroizilles.xlsx
+++ b/medicine/Pharmacie/François_Descroizilles/François_Descroizilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Descroizilles</t>
+          <t>François_Descroizilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Descroizilles, dit « Descroizilles père », né le 20 septembre 1707 à Dieppe,  mort le 11 mars 1788 dans la même ville, est un pharmacien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Descroizilles</t>
+          <t>François_Descroizilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né sur la paroisse Saint-Jacques d’une famille qui, depuis cinq générations, exerçait avec honneur la pharmacie à Dieppe, Descroizilles se rendit, après avoir terminé ses premières études, à Paris où il suivit, pendant plusieurs années, les leçons de Geoffroy et Jussieu.
 À son retour à Dieppe, il se procura un jardin où il réunit un grand nombre de plantes usuelles et agréables. Il partageait ses amusements entre la culture de son jardin et des herborisations où ses concitoyens se plaisaient à l’accompagner. L’agronome Parmentier et le thérapeutiste Alibert ont proclamé l’excellence de la méthode employée par Descroizilles dans ses plantations aux portes de la ville de Dieppe. La botanique avait donné naissance à l’Académie de Rouen, elle y marqua la place de Descroizilles.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Descroizilles</t>
+          <t>François_Descroizilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Découverte d'un remède purgatif, fondant et calmant, ou Traité sur un nouveau sel neutre, Rouen, 1700.
 Nouvelles observations sur le sel purgatif, etc. Rouen, I762.</t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Descroizilles</t>
+          <t>François_Descroizilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Jean Benoît Désiré Cochet, Galerie dieppoise, Dieppe, E. Delevoye, 1862, p. 139-40. 
